--- a/I2C/TI-I2C寄存器列表.xlsx
+++ b/I2C/TI-I2C寄存器列表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pi\Desktop\外设兼容\I2C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB89C7E-0CCA-4179-9A6C-31140478CEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D831B75-3DD8-4CC5-B610-804D5DD1AC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="444" windowWidth="23040" windowHeight="6756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7776" yWindow="336" windowWidth="23040" windowHeight="6756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TI I2C Regs" sheetId="1" r:id="rId1"/>
+    <sheet name="TI I2C Interrupts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>I2C 寄存器 TI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +62,297 @@
   <si>
     <t>保留</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CIER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CSTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> I2CCLKL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> I2CCLKH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> I2CCNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CDRR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CSAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CDXR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> I2CMDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CISRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CEMDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> I2CPSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CFFTX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CFFRX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主寄存器功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C Own address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C Interrupt Enable </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C Clock low-time divider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C Clock high-time divide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C Data count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C Data receive </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C Slave address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C Data Transmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C Interrupt Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C Extended Mode </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C Prescaler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C FIFO Transmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C FIFO Receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2COAR 作为 16 位寄存器，用于设定 I2C 模块自身的从地址，以在 I2C 总线上区别于其他从设备。当选择 7 位寻址模式（I2CMDR 中 XA=0）时，只需使用位 6-0，且要将位 9-7 写为 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 7 位寻址模式（I2CMDR 中 XA=0）时，I2COAR 寄存器的位 6-0 提供 I2C 模块的 7 位从地址，且要将位 9-7 写为 0；而在 10 位寻址模式（XA=1）时，位 9-0 提供 10 位从地址。复位类型为 SYSRSn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CIER 用于 CPU 单独启用或禁用 I2C 中断请求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CCLKL 寄存器通常用于设置 I2C 通信中的时钟低电平时间相关的参数。它可以用来调整时钟信号的特性，以适应不同的通信需求和设备要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> I2CCNT 这个 16 位寄存器在 I2C 模块配置为发送器时用于指示要传输多少数据字节，或者在配置为主接收器时用于指示要接收多少数据字节。在重复模式下（RM=1）它不被使用。写入 I2CCNT 的值会被复制到内部数据计数器，每传输一个字节内部数据计数器减 1（I2CCNT 保持不变），如果在主模式下请求停止条件（I2CMDR 中 STP=1），当倒计时完成（即最后一个字节已传输）时，I2C 模块会以停止条件终止传输。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> I2CDRR 是一个 16 位寄存器，CPU 用它来读取接收到的数据。I2C 模块可接收 1 到 8 位的数据字节，位数通过 I2CMDR 中的位计数(BC)位来选择。数据会逐位从 SDA 引脚移入接收移位寄存器(I2CRSR)，当完整的数据字节接收完后，I2C 模块会将数据字节从 I2CRSR 复制到 I2CDRR。CPU 不能直接访问 I2CRSR。若 I2CDRR 中是少于 8 位的数据字节，则数据值右对齐，I2CDRR(7-0)的其他位未定义。在接收 FIFO 模式下，I2CDRR 充当接收 FIFO 缓冲器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CSAR 是 16 位寄存器，用于存储 I2C 模块作为主设备时将要传输的下一个从设备地址。I2CSAR 的 SAR 字段包含 7 位或 10 位从地址。当 I2C 模块不使用自由数据格式（I2CMDR 中 FDF=0）时，用这个地址与一个或多个从设备发起数据传输。地址非零时是针对特定从设备，为 0 时是对所有从设备的通用调用。若选择 7 位寻址模式（I2CMDR 中 XA=0），则仅使用 I2CSAR 的 6-0 位，要将 9-7 位写为 0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU 将发送数据写入 I2CDXR 这个 16 位寄存器，它可接受 1 到 8 位的数据字节。在写入 I2CDXR 之前，要通过将合适的值加载到 I2CMDR 的位计数(BC)位来指定数据字节中的位数。当写入少于 8 位的数据字节时，要确保值在 I2CDXR 中右对齐。数据字节写入 I2CDXR 后，I2C 模块会将其复制到发送移位寄存器(I2CXSR)，CPU 不能直接访问 I2CXSR。I2C 模块从 I2CXSR 逐位在 SDA 引脚上移出数据。在发送 FIFO 模式下，I2CDXR 充当发送 FIFO 缓冲器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断源寄存器，告诉CPU中断发生时发生了什么事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CPSC 是 16 位寄存器，用于对 I2C 输入时钟进行分频以获得 I2C 模块操作所需的期望模块时钟。必须在 I2C 模块处于复位状态（I2CMDR 中的 IRS=0）时初始化 IPSC，且分频后的频率只有在 IRS 变为 1 时才生效，在 IRS=1 时更改 IPSC 值则没有效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CFFTX 这个 16 位寄存器包含了 I2C FIFO 模式使能位，以及 I2C 外设上发送 FIFO 模式操作的控制和状态位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CFFRX 这 16 位寄存器包含了用于 I2C 外设接收 FIFO 模式操作的控制和状态位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESERVED[15:7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type &amp;&amp; reset （reset默认值为0,同步复位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addressed as slave interrupt；0h = 中断禁止；1h中断允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAS[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCD[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRDY[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRDY[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARDY[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NACK[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARBL[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop condition detected Interrupt；0h =  中断禁止；1h中断允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transmit-data-ready interrupt enable bit.0h =  中断禁止；1h中断允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive-data-ready interrupt enable bit.0h =  中断禁止；1h中断允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register-access-ready interrupt；.0h =  中断禁止；1h中断允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No-acknowledgment interrupt；0h =  中断禁止；1h中断允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbitration-lost interrupt;0h =  中断禁止；1h中断允许 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> I2CSTR 是一个 16 位的寄存器，它的主要作用是用于判断发生了哪种中断，同时可以读取到相关的状态信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interrupts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRDYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRDYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARDYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NACKINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARBLINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCDINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AASINT</t>
   </si>
 </sst>
 </file>
@@ -103,13 +395,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,61 +692,526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="1" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" customWidth="1"/>
+    <col min="5" max="5" width="41.109375" customWidth="1"/>
+    <col min="6" max="6" width="69.109375" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="153.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="166.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="A4:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CC54F3-E4CA-44E3-839B-151C11AB66CB}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>